--- a/target/test-classes/ExcelData/ParaBank.xlsx
+++ b/target/test-classes/ExcelData/ParaBank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOLAN\eclipse-workspace\TestNgTable\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBC04A0-DA0B-430D-9155-FBAAE0E2EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C426296-3E98-4168-89C6-D0889373813B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
     <t>john123@</t>
   </si>
   <si>
-    <t>NOLAN2</t>
+    <t>NOLAN3</t>
   </si>
 </sst>
 </file>
